--- a/PREVENTIVAS.xlsx
+++ b/PREVENTIVAS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="13">
   <si>
     <t>N_OS</t>
   </si>
@@ -51,6 +51,9 @@
   <si>
     <t>Preventiva</t>
   </si>
+  <si>
+    <t>nan</t>
+  </si>
 </sst>
 </file>
 
@@ -59,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,7 +72,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -127,13 +136,13 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -462,7 +471,7 @@
     <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>5591538</v>
       </c>
@@ -493,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -505,10 +514,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>5591594</v>
       </c>
@@ -516,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
@@ -528,10 +537,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>5591655</v>
       </c>
@@ -539,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
@@ -551,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>5591739</v>
       </c>
@@ -562,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
@@ -574,10 +583,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>5591744</v>
       </c>
@@ -585,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
@@ -597,10 +606,10 @@
         <v>10</v>
       </c>
       <c r="G6" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>5591771</v>
       </c>
@@ -608,7 +617,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
@@ -620,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="G7" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>5591776</v>
       </c>
@@ -631,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
@@ -643,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="G8" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>5591778</v>
       </c>
@@ -654,7 +663,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
@@ -666,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
         <v>5591786</v>
       </c>
@@ -677,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>8</v>
@@ -689,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="G10" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
         <v>5591634</v>
       </c>
@@ -700,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>8</v>
@@ -712,10 +721,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4">
         <v>5591710</v>
       </c>
@@ -723,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>8</v>
@@ -735,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4">
         <v>5591711</v>
       </c>
@@ -746,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
@@ -758,16 +767,18 @@
         <v>10</v>
       </c>
       <c r="G13" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4">
         <v>5591713</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>8</v>
@@ -779,16 +790,18 @@
         <v>10</v>
       </c>
       <c r="G14" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4">
         <v>5591742</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C15" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -800,16 +813,18 @@
         <v>10</v>
       </c>
       <c r="G15" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
         <v>5591755</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C16" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
@@ -821,16 +836,18 @@
         <v>10</v>
       </c>
       <c r="G16" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
         <v>5591787</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C17" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>8</v>
@@ -842,16 +859,18 @@
         <v>10</v>
       </c>
       <c r="G17" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
         <v>5591444</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C18" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
@@ -863,16 +882,18 @@
         <v>11</v>
       </c>
       <c r="G18" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
         <v>5591459</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C19" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>8</v>
@@ -884,16 +905,18 @@
         <v>11</v>
       </c>
       <c r="G19" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4">
         <v>5591465</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C20" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>8</v>
@@ -905,16 +928,18 @@
         <v>10</v>
       </c>
       <c r="G20" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4">
         <v>5591667</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C21" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>8</v>
@@ -926,16 +951,18 @@
         <v>10</v>
       </c>
       <c r="G21" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4">
         <v>5591681</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C22" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -947,16 +974,18 @@
         <v>10</v>
       </c>
       <c r="G22" s="6">
-        <v>25568.875532407408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+        <v>25568.875295925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4">
         <v>5591704</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C23" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>8</v>
@@ -968,16 +997,18 @@
         <v>10</v>
       </c>
       <c r="G23" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4">
         <v>5591735</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C24" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>8</v>
@@ -989,16 +1020,18 @@
         <v>10</v>
       </c>
       <c r="G24" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4">
         <v>5591749</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C25" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>8</v>
@@ -1010,16 +1043,18 @@
         <v>10</v>
       </c>
       <c r="G25" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4">
         <v>5591783</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C26" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -1031,16 +1066,18 @@
         <v>10</v>
       </c>
       <c r="G26" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4">
         <v>5591491</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C27" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>8</v>
@@ -1052,16 +1089,18 @@
         <v>10</v>
       </c>
       <c r="G27" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4">
         <v>5591510</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C28" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>8</v>
@@ -1073,16 +1112,18 @@
         <v>10</v>
       </c>
       <c r="G28" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4">
         <v>5591531</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C29" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>8</v>
@@ -1094,16 +1135,18 @@
         <v>10</v>
       </c>
       <c r="G29" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4">
         <v>5591562</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C30" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>8</v>
@@ -1115,16 +1158,18 @@
         <v>10</v>
       </c>
       <c r="G30" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4">
         <v>5591619</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C31" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>8</v>
@@ -1136,16 +1181,18 @@
         <v>10</v>
       </c>
       <c r="G31" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4">
         <v>5591675</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C32" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>8</v>
@@ -1157,16 +1204,18 @@
         <v>10</v>
       </c>
       <c r="G32" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4">
         <v>5591695</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C33" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>8</v>
@@ -1178,16 +1227,18 @@
         <v>10</v>
       </c>
       <c r="G33" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4">
         <v>5591712</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C34" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>8</v>
@@ -1199,16 +1250,18 @@
         <v>10</v>
       </c>
       <c r="G34" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4">
         <v>5591740</v>
       </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C35" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>8</v>
@@ -1220,16 +1273,18 @@
         <v>10</v>
       </c>
       <c r="G35" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4">
         <v>5591760</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C36" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>8</v>
@@ -1241,16 +1296,18 @@
         <v>10</v>
       </c>
       <c r="G36" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4">
         <v>5591784</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C37" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>8</v>
@@ -1262,16 +1319,18 @@
         <v>10</v>
       </c>
       <c r="G37" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4">
         <v>5591455</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C38" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>8</v>
@@ -1283,16 +1342,18 @@
         <v>11</v>
       </c>
       <c r="G38" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4">
         <v>5591500</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C39" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>8</v>
@@ -1304,16 +1365,18 @@
         <v>10</v>
       </c>
       <c r="G39" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4">
         <v>5591529</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C40" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>8</v>
@@ -1325,16 +1388,18 @@
         <v>10</v>
       </c>
       <c r="G40" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4">
         <v>5591552</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C41" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>8</v>
@@ -1346,16 +1411,18 @@
         <v>10</v>
       </c>
       <c r="G41" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4">
         <v>5591557</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C42" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>8</v>
@@ -1367,16 +1434,18 @@
         <v>10</v>
       </c>
       <c r="G42" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4">
         <v>5591609</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C43" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>8</v>
@@ -1388,16 +1457,18 @@
         <v>10</v>
       </c>
       <c r="G43" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4">
         <v>5591670</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C44" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>8</v>
@@ -1409,16 +1480,18 @@
         <v>10</v>
       </c>
       <c r="G44" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4">
         <v>5591716</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C45" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>8</v>
@@ -1430,16 +1503,18 @@
         <v>10</v>
       </c>
       <c r="G45" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4">
         <v>5591758</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C46" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>8</v>
@@ -1451,16 +1526,18 @@
         <v>10</v>
       </c>
       <c r="G46" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4">
         <v>5591779</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C47" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>8</v>
@@ -1472,16 +1549,18 @@
         <v>10</v>
       </c>
       <c r="G47" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4">
         <v>5591440</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C48" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>8</v>
@@ -1493,16 +1572,18 @@
         <v>10</v>
       </c>
       <c r="G48" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4">
         <v>5591482</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C49" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>8</v>
@@ -1514,16 +1595,18 @@
         <v>10</v>
       </c>
       <c r="G49" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="4">
         <v>5591503</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C50" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>8</v>
@@ -1535,16 +1618,18 @@
         <v>10</v>
       </c>
       <c r="G50" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="4">
         <v>5591561</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C51" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>8</v>
@@ -1556,16 +1641,18 @@
         <v>10</v>
       </c>
       <c r="G51" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="4">
         <v>5591568</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C52" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>8</v>
@@ -1577,16 +1664,18 @@
         <v>10</v>
       </c>
       <c r="G52" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="4">
         <v>5591596</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C53" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>8</v>
@@ -1598,16 +1687,18 @@
         <v>10</v>
       </c>
       <c r="G53" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="4">
         <v>5591612</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C54" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>8</v>
@@ -1619,16 +1710,18 @@
         <v>10</v>
       </c>
       <c r="G54" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="4">
         <v>5591630</v>
       </c>
-      <c r="B55" s="5"/>
+      <c r="B55" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C55" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>8</v>
@@ -1640,16 +1733,18 @@
         <v>11</v>
       </c>
       <c r="G55" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="4">
         <v>5591661</v>
       </c>
-      <c r="B56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C56" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>8</v>
@@ -1661,16 +1756,18 @@
         <v>10</v>
       </c>
       <c r="G56" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="4">
         <v>5591789</v>
       </c>
-      <c r="B57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C57" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>8</v>
@@ -1682,16 +1779,18 @@
         <v>10</v>
       </c>
       <c r="G57" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="4">
         <v>5591460</v>
       </c>
-      <c r="B58" s="5"/>
+      <c r="B58" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C58" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>8</v>
@@ -1703,16 +1802,18 @@
         <v>11</v>
       </c>
       <c r="G58" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="4">
         <v>5591495</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C59" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>8</v>
@@ -1724,16 +1825,18 @@
         <v>10</v>
       </c>
       <c r="G59" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="4">
         <v>5591502</v>
       </c>
-      <c r="B60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C60" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>8</v>
@@ -1745,16 +1848,18 @@
         <v>10</v>
       </c>
       <c r="G60" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="4">
         <v>5591506</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C61" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>8</v>
@@ -1766,16 +1871,18 @@
         <v>10</v>
       </c>
       <c r="G61" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="4">
         <v>5591507</v>
       </c>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C62" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>8</v>
@@ -1787,16 +1894,18 @@
         <v>10</v>
       </c>
       <c r="G62" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="4">
         <v>5591574</v>
       </c>
-      <c r="B63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C63" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>8</v>
@@ -1808,16 +1917,18 @@
         <v>10</v>
       </c>
       <c r="G63" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="4">
         <v>5591587</v>
       </c>
-      <c r="B64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C64" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>8</v>
@@ -1829,16 +1940,18 @@
         <v>10</v>
       </c>
       <c r="G64" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="4">
         <v>5591618</v>
       </c>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C65" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>8</v>
@@ -1850,16 +1963,18 @@
         <v>10</v>
       </c>
       <c r="G65" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="4">
         <v>5591723</v>
       </c>
-      <c r="B66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C66" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>8</v>
@@ -1871,16 +1986,18 @@
         <v>10</v>
       </c>
       <c r="G66" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="4">
         <v>5591788</v>
       </c>
-      <c r="B67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C67" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>8</v>
@@ -1892,16 +2009,18 @@
         <v>10</v>
       </c>
       <c r="G67" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="4">
         <v>5591549</v>
       </c>
-      <c r="B68" s="5"/>
+      <c r="B68" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C68" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>8</v>
@@ -1913,16 +2032,18 @@
         <v>10</v>
       </c>
       <c r="G68" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="4">
         <v>5591569</v>
       </c>
-      <c r="B69" s="5"/>
+      <c r="B69" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C69" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>8</v>
@@ -1934,16 +2055,18 @@
         <v>10</v>
       </c>
       <c r="G69" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="4">
         <v>5591651</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C70" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>8</v>
@@ -1955,16 +2078,18 @@
         <v>10</v>
       </c>
       <c r="G70" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="4">
         <v>5591673</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C71" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>8</v>
@@ -1976,16 +2101,18 @@
         <v>10</v>
       </c>
       <c r="G71" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="4">
         <v>5591686</v>
       </c>
-      <c r="B72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C72" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>8</v>
@@ -1997,16 +2124,18 @@
         <v>10</v>
       </c>
       <c r="G72" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="4">
         <v>5591697</v>
       </c>
-      <c r="B73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C73" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>8</v>
@@ -2018,16 +2147,18 @@
         <v>10</v>
       </c>
       <c r="G73" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="4">
         <v>5591699</v>
       </c>
-      <c r="B74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C74" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>8</v>
@@ -2039,16 +2170,18 @@
         <v>10</v>
       </c>
       <c r="G74" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="4">
         <v>5591719</v>
       </c>
-      <c r="B75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C75" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>8</v>
@@ -2060,16 +2193,18 @@
         <v>10</v>
       </c>
       <c r="G75" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="4">
         <v>5591745</v>
       </c>
-      <c r="B76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C76" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>8</v>
@@ -2081,16 +2216,18 @@
         <v>10</v>
       </c>
       <c r="G76" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="4">
         <v>5591748</v>
       </c>
-      <c r="B77" s="5"/>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C77" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>8</v>
@@ -2102,16 +2239,18 @@
         <v>10</v>
       </c>
       <c r="G77" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="4">
         <v>5591518</v>
       </c>
-      <c r="B78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C78" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>8</v>
@@ -2123,16 +2262,18 @@
         <v>10</v>
       </c>
       <c r="G78" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="4">
         <v>5591637</v>
       </c>
-      <c r="B79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C79" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>8</v>
@@ -2144,16 +2285,18 @@
         <v>11</v>
       </c>
       <c r="G79" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="4">
         <v>5591647</v>
       </c>
-      <c r="B80" s="5"/>
+      <c r="B80" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C80" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>8</v>
@@ -2165,16 +2308,18 @@
         <v>11</v>
       </c>
       <c r="G80" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="4">
         <v>5591688</v>
       </c>
-      <c r="B81" s="5"/>
+      <c r="B81" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C81" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>8</v>
@@ -2186,16 +2331,18 @@
         <v>10</v>
       </c>
       <c r="G81" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="4">
         <v>5591722</v>
       </c>
-      <c r="B82" s="5"/>
+      <c r="B82" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C82" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>8</v>
@@ -2207,16 +2354,18 @@
         <v>10</v>
       </c>
       <c r="G82" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="4">
         <v>5591489</v>
       </c>
-      <c r="B83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C83" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>8</v>
@@ -2228,16 +2377,18 @@
         <v>10</v>
       </c>
       <c r="G83" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="4">
         <v>5591543</v>
       </c>
-      <c r="B84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C84" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>8</v>
@@ -2249,16 +2400,18 @@
         <v>10</v>
       </c>
       <c r="G84" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="4">
         <v>5591582</v>
       </c>
-      <c r="B85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C85" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>8</v>
@@ -2270,16 +2423,18 @@
         <v>10</v>
       </c>
       <c r="G85" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="4">
         <v>5591588</v>
       </c>
-      <c r="B86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C86" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>8</v>
@@ -2291,16 +2446,18 @@
         <v>10</v>
       </c>
       <c r="G86" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="4">
         <v>5591620</v>
       </c>
-      <c r="B87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C87" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>8</v>
@@ -2312,16 +2469,18 @@
         <v>10</v>
       </c>
       <c r="G87" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="4">
         <v>5591702</v>
       </c>
-      <c r="B88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C88" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>8</v>
@@ -2333,16 +2492,18 @@
         <v>10</v>
       </c>
       <c r="G88" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="4">
         <v>5591751</v>
       </c>
-      <c r="B89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C89" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>8</v>
@@ -2354,16 +2515,18 @@
         <v>10</v>
       </c>
       <c r="G89" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="4">
         <v>5591772</v>
       </c>
-      <c r="B90" s="5"/>
+      <c r="B90" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C90" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>8</v>
@@ -2375,16 +2538,18 @@
         <v>10</v>
       </c>
       <c r="G90" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="4">
         <v>5591441</v>
       </c>
-      <c r="B91" s="5"/>
+      <c r="B91" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C91" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>8</v>
@@ -2396,16 +2561,18 @@
         <v>11</v>
       </c>
       <c r="G91" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="4">
         <v>5591513</v>
       </c>
-      <c r="B92" s="5"/>
+      <c r="B92" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C92" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>8</v>
@@ -2417,16 +2584,18 @@
         <v>10</v>
       </c>
       <c r="G92" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="4">
         <v>5591526</v>
       </c>
-      <c r="B93" s="5"/>
+      <c r="B93" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C93" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>8</v>
@@ -2438,16 +2607,18 @@
         <v>10</v>
       </c>
       <c r="G93" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="4">
         <v>5591553</v>
       </c>
-      <c r="B94" s="5"/>
+      <c r="B94" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C94" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>8</v>
@@ -2459,16 +2630,18 @@
         <v>10</v>
       </c>
       <c r="G94" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="4">
         <v>5591566</v>
       </c>
-      <c r="B95" s="5"/>
+      <c r="B95" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C95" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>8</v>
@@ -2480,16 +2653,18 @@
         <v>10</v>
       </c>
       <c r="G95" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="4">
         <v>5591601</v>
       </c>
-      <c r="B96" s="5"/>
+      <c r="B96" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C96" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>8</v>
@@ -2501,16 +2676,18 @@
         <v>10</v>
       </c>
       <c r="G96" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="4">
         <v>5591654</v>
       </c>
-      <c r="B97" s="5"/>
+      <c r="B97" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C97" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>8</v>
@@ -2522,16 +2699,18 @@
         <v>10</v>
       </c>
       <c r="G97" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="4">
         <v>5591679</v>
       </c>
-      <c r="B98" s="5"/>
+      <c r="B98" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C98" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>8</v>
@@ -2543,16 +2722,18 @@
         <v>10</v>
       </c>
       <c r="G98" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="4">
         <v>5591714</v>
       </c>
-      <c r="B99" s="5"/>
+      <c r="B99" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C99" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>8</v>
@@ -2564,16 +2745,18 @@
         <v>10</v>
       </c>
       <c r="G99" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="4">
         <v>5591720</v>
       </c>
-      <c r="B100" s="5"/>
+      <c r="B100" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C100" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>8</v>
@@ -2585,16 +2768,18 @@
         <v>10</v>
       </c>
       <c r="G100" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="4">
         <v>5591726</v>
       </c>
-      <c r="B101" s="5"/>
+      <c r="B101" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C101" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>8</v>
@@ -2606,16 +2791,18 @@
         <v>10</v>
       </c>
       <c r="G101" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="4">
         <v>5591730</v>
       </c>
-      <c r="B102" s="5"/>
+      <c r="B102" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C102" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>8</v>
@@ -2627,16 +2814,18 @@
         <v>10</v>
       </c>
       <c r="G102" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="4">
         <v>5591731</v>
       </c>
-      <c r="B103" s="5"/>
+      <c r="B103" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C103" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>8</v>
@@ -2648,16 +2837,18 @@
         <v>10</v>
       </c>
       <c r="G103" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="4">
         <v>5591468</v>
       </c>
-      <c r="B104" s="5"/>
+      <c r="B104" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C104" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>8</v>
@@ -2669,16 +2860,18 @@
         <v>10</v>
       </c>
       <c r="G104" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="4">
         <v>5591479</v>
       </c>
-      <c r="B105" s="5"/>
+      <c r="B105" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C105" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>8</v>
@@ -2690,16 +2883,18 @@
         <v>10</v>
       </c>
       <c r="G105" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="4">
         <v>5591567</v>
       </c>
-      <c r="B106" s="5"/>
+      <c r="B106" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C106" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>8</v>
@@ -2711,16 +2906,18 @@
         <v>10</v>
       </c>
       <c r="G106" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="4">
         <v>5591570</v>
       </c>
-      <c r="B107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C107" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>8</v>
@@ -2732,16 +2929,18 @@
         <v>10</v>
       </c>
       <c r="G107" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="4">
         <v>5591572</v>
       </c>
-      <c r="B108" s="5"/>
+      <c r="B108" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C108" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>8</v>
@@ -2753,16 +2952,18 @@
         <v>10</v>
       </c>
       <c r="G108" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="4">
         <v>5591635</v>
       </c>
-      <c r="B109" s="5"/>
+      <c r="B109" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C109" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>8</v>
@@ -2774,16 +2975,18 @@
         <v>11</v>
       </c>
       <c r="G109" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="4">
         <v>5591443</v>
       </c>
-      <c r="B110" s="5"/>
+      <c r="B110" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C110" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>8</v>
@@ -2795,16 +2998,18 @@
         <v>11</v>
       </c>
       <c r="G110" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="4">
         <v>5591448</v>
       </c>
-      <c r="B111" s="5"/>
+      <c r="B111" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C111" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>8</v>
@@ -2816,16 +3021,18 @@
         <v>11</v>
       </c>
       <c r="G111" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="4">
         <v>5591464</v>
       </c>
-      <c r="B112" s="5"/>
+      <c r="B112" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C112" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>8</v>
@@ -2837,16 +3044,18 @@
         <v>10</v>
       </c>
       <c r="G112" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="4">
         <v>5591508</v>
       </c>
-      <c r="B113" s="5"/>
+      <c r="B113" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C113" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>8</v>
@@ -2858,16 +3067,18 @@
         <v>10</v>
       </c>
       <c r="G113" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="4">
         <v>5591539</v>
       </c>
-      <c r="B114" s="5"/>
+      <c r="B114" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C114" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>8</v>
@@ -2879,16 +3090,18 @@
         <v>10</v>
       </c>
       <c r="G114" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="4">
         <v>5591564</v>
       </c>
-      <c r="B115" s="5"/>
+      <c r="B115" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C115" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>8</v>
@@ -2900,16 +3113,18 @@
         <v>10</v>
       </c>
       <c r="G115" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="4">
         <v>5591578</v>
       </c>
-      <c r="B116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C116" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>8</v>
@@ -2921,16 +3136,18 @@
         <v>10</v>
       </c>
       <c r="G116" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="4">
         <v>5591585</v>
       </c>
-      <c r="B117" s="5"/>
+      <c r="B117" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C117" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>8</v>
@@ -2942,16 +3159,18 @@
         <v>10</v>
       </c>
       <c r="G117" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="4">
         <v>5591590</v>
       </c>
-      <c r="B118" s="5"/>
+      <c r="B118" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C118" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>8</v>
@@ -2963,16 +3182,18 @@
         <v>10</v>
       </c>
       <c r="G118" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="4">
         <v>5591597</v>
       </c>
-      <c r="B119" s="5"/>
+      <c r="B119" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C119" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>8</v>
@@ -2984,16 +3205,18 @@
         <v>10</v>
       </c>
       <c r="G119" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="4">
         <v>5591665</v>
       </c>
-      <c r="B120" s="5"/>
+      <c r="B120" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C120" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>8</v>
@@ -3005,16 +3228,18 @@
         <v>10</v>
       </c>
       <c r="G120" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="4">
         <v>5591677</v>
       </c>
-      <c r="B121" s="5"/>
+      <c r="B121" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C121" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>8</v>
@@ -3026,16 +3251,18 @@
         <v>10</v>
       </c>
       <c r="G121" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="4">
         <v>5591734</v>
       </c>
-      <c r="B122" s="5"/>
+      <c r="B122" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C122" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>8</v>
@@ -3047,16 +3274,18 @@
         <v>10</v>
       </c>
       <c r="G122" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="4">
         <v>5591828</v>
       </c>
-      <c r="B123" s="5"/>
+      <c r="B123" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C123" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>8</v>
@@ -3068,16 +3297,18 @@
         <v>10</v>
       </c>
       <c r="G123" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="4">
         <v>5591650</v>
       </c>
-      <c r="B124" s="5"/>
+      <c r="B124" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C124" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>8</v>
@@ -3089,16 +3320,18 @@
         <v>11</v>
       </c>
       <c r="G124" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="4">
         <v>5591658</v>
       </c>
-      <c r="B125" s="5"/>
+      <c r="B125" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C125" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>8</v>
@@ -3110,16 +3343,18 @@
         <v>10</v>
       </c>
       <c r="G125" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="4">
         <v>5591708</v>
       </c>
-      <c r="B126" s="5"/>
+      <c r="B126" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C126" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>8</v>
@@ -3131,16 +3366,18 @@
         <v>10</v>
       </c>
       <c r="G126" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="4">
         <v>5591725</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C127" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>8</v>
@@ -3152,16 +3389,18 @@
         <v>10</v>
       </c>
       <c r="G127" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="4">
         <v>5591446</v>
       </c>
-      <c r="B128" s="5"/>
+      <c r="B128" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C128" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>8</v>
@@ -3173,16 +3412,18 @@
         <v>11</v>
       </c>
       <c r="G128" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="4">
         <v>5591453</v>
       </c>
-      <c r="B129" s="5"/>
+      <c r="B129" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C129" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>8</v>
@@ -3194,16 +3435,18 @@
         <v>11</v>
       </c>
       <c r="G129" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="4">
         <v>5591476</v>
       </c>
-      <c r="B130" s="5"/>
+      <c r="B130" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C130" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>8</v>
@@ -3215,16 +3458,18 @@
         <v>10</v>
       </c>
       <c r="G130" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="4">
         <v>5591488</v>
       </c>
-      <c r="B131" s="5"/>
+      <c r="B131" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C131" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>8</v>
@@ -3236,16 +3481,18 @@
         <v>10</v>
       </c>
       <c r="G131" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="4">
         <v>5591497</v>
       </c>
-      <c r="B132" s="5"/>
+      <c r="B132" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C132" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>8</v>
@@ -3257,16 +3504,18 @@
         <v>10</v>
       </c>
       <c r="G132" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="4">
         <v>5591512</v>
       </c>
-      <c r="B133" s="5"/>
+      <c r="B133" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C133" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>8</v>
@@ -3278,16 +3527,18 @@
         <v>10</v>
       </c>
       <c r="G133" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="4">
         <v>5591547</v>
       </c>
-      <c r="B134" s="5"/>
+      <c r="B134" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C134" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>8</v>
@@ -3299,16 +3550,18 @@
         <v>10</v>
       </c>
       <c r="G134" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="4">
         <v>5591606</v>
       </c>
-      <c r="B135" s="5"/>
+      <c r="B135" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C135" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>8</v>
@@ -3320,16 +3573,18 @@
         <v>10</v>
       </c>
       <c r="G135" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="4">
         <v>5591616</v>
       </c>
-      <c r="B136" s="5"/>
+      <c r="B136" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C136" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>8</v>
@@ -3341,16 +3596,18 @@
         <v>10</v>
       </c>
       <c r="G136" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="4">
         <v>5591627</v>
       </c>
-      <c r="B137" s="5"/>
+      <c r="B137" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C137" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>8</v>
@@ -3362,16 +3619,18 @@
         <v>10</v>
       </c>
       <c r="G137" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="4">
         <v>5591640</v>
       </c>
-      <c r="B138" s="5"/>
+      <c r="B138" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C138" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>8</v>
@@ -3383,16 +3642,18 @@
         <v>11</v>
       </c>
       <c r="G138" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="4">
         <v>5591672</v>
       </c>
-      <c r="B139" s="5"/>
+      <c r="B139" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C139" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>8</v>
@@ -3404,16 +3665,18 @@
         <v>10</v>
       </c>
       <c r="G139" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="4">
         <v>5591683</v>
       </c>
-      <c r="B140" s="5"/>
+      <c r="B140" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C140" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>8</v>
@@ -3425,16 +3688,18 @@
         <v>10</v>
       </c>
       <c r="G140" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="4">
         <v>5591733</v>
       </c>
-      <c r="B141" s="5"/>
+      <c r="B141" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C141" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>8</v>
@@ -3446,16 +3711,18 @@
         <v>10</v>
       </c>
       <c r="G141" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="4">
         <v>5591743</v>
       </c>
-      <c r="B142" s="5"/>
+      <c r="B142" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C142" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>8</v>
@@ -3467,16 +3734,18 @@
         <v>10</v>
       </c>
       <c r="G142" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="4">
         <v>5591746</v>
       </c>
-      <c r="B143" s="5"/>
+      <c r="B143" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C143" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>8</v>
@@ -3488,16 +3757,18 @@
         <v>10</v>
       </c>
       <c r="G143" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="4">
         <v>5591785</v>
       </c>
-      <c r="B144" s="5"/>
+      <c r="B144" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C144" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>8</v>
@@ -3509,16 +3780,18 @@
         <v>10</v>
       </c>
       <c r="G144" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="4">
         <v>5591457</v>
       </c>
-      <c r="B145" s="5"/>
+      <c r="B145" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C145" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>8</v>
@@ -3530,16 +3803,18 @@
         <v>11</v>
       </c>
       <c r="G145" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="4">
         <v>5591463</v>
       </c>
-      <c r="B146" s="5"/>
+      <c r="B146" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C146" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>8</v>
@@ -3551,16 +3826,18 @@
         <v>11</v>
       </c>
       <c r="G146" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="4">
         <v>5591469</v>
       </c>
-      <c r="B147" s="5"/>
+      <c r="B147" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C147" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>8</v>
@@ -3572,16 +3849,18 @@
         <v>10</v>
       </c>
       <c r="G147" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="4">
         <v>5591498</v>
       </c>
-      <c r="B148" s="5"/>
+      <c r="B148" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C148" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>8</v>
@@ -3593,16 +3872,18 @@
         <v>10</v>
       </c>
       <c r="G148" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="4">
         <v>5591532</v>
       </c>
-      <c r="B149" s="5"/>
+      <c r="B149" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C149" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>8</v>
@@ -3614,16 +3895,18 @@
         <v>10</v>
       </c>
       <c r="G149" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="4">
         <v>5591544</v>
       </c>
-      <c r="B150" s="5"/>
+      <c r="B150" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C150" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>8</v>
@@ -3635,16 +3918,18 @@
         <v>10</v>
       </c>
       <c r="G150" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="4">
         <v>5591724</v>
       </c>
-      <c r="B151" s="5"/>
+      <c r="B151" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C151" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>8</v>
@@ -3656,16 +3941,18 @@
         <v>10</v>
       </c>
       <c r="G151" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="4">
         <v>5591728</v>
       </c>
-      <c r="B152" s="5"/>
+      <c r="B152" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C152" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>8</v>
@@ -3677,16 +3964,18 @@
         <v>10</v>
       </c>
       <c r="G152" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="4">
         <v>5591729</v>
       </c>
-      <c r="B153" s="5"/>
+      <c r="B153" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C153" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>8</v>
@@ -3698,7 +3987,7 @@
         <v>10</v>
       </c>
       <c r="G153" s="6">
-        <v>25568.875532407408</v>
+        <v>25568.875295925925</v>
       </c>
     </row>
   </sheetData>

--- a/PREVENTIVAS.xlsx
+++ b/PREVENTIVAS.xlsx
@@ -450,14 +450,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>5728157</v>
       </c>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>5728161</v>
       </c>
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>5728163</v>
       </c>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>5728168</v>
       </c>
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>5728186</v>
       </c>
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>5728243</v>
       </c>
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>5728255</v>
       </c>
@@ -593,7 +593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>5728271</v>
       </c>
@@ -610,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>5728208</v>
       </c>
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>5728209</v>
       </c>
@@ -644,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>5728210</v>
       </c>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>5728215</v>
       </c>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
         <v>5728217</v>
       </c>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4">
         <v>5728227</v>
       </c>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4">
         <v>5728257</v>
       </c>
@@ -729,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4">
         <v>5728275</v>
       </c>
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4">
         <v>5728191</v>
       </c>
@@ -763,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4">
         <v>5728211</v>
       </c>
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4">
         <v>5728158</v>
       </c>
@@ -797,7 +797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4">
         <v>5728237</v>
       </c>
@@ -814,7 +814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4">
         <v>5728203</v>
       </c>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4">
         <v>5728251</v>
       </c>
@@ -848,7 +848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4">
         <v>5728263</v>
       </c>
@@ -865,7 +865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4">
         <v>5728171</v>
       </c>
@@ -882,7 +882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="4">
         <v>5728185</v>
       </c>
@@ -899,7 +899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="4">
         <v>5728205</v>
       </c>
@@ -916,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="4">
         <v>5728183</v>
       </c>
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="4">
         <v>5728192</v>
       </c>
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="4">
         <v>5728201</v>
       </c>
@@ -967,7 +967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="4">
         <v>5728226</v>
       </c>
@@ -984,7 +984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="4">
         <v>5728241</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="4">
         <v>5728176</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="4">
         <v>5728228</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="4">
         <v>5728278</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="4">
         <v>5728179</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="4">
         <v>5728221</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="4">
         <v>5728262</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="4">
         <v>5728230</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="4">
         <v>5728246</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="4">
         <v>5728232</v>
       </c>
@@ -1154,12 +1154,12 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="4">
         <v>5728280</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" s="6">
         <v>25568.875295925925</v>
@@ -1171,12 +1171,12 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="4">
         <v>5728190</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" s="6">
         <v>25568.875295925925</v>
@@ -1188,12 +1188,12 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="4">
         <v>5728265</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" s="6">
         <v>25568.875295925925</v>
@@ -1205,12 +1205,12 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="4">
         <v>5728188</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" s="6">
         <v>25568.875295925925</v>
@@ -1222,12 +1222,12 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="4">
         <v>5728218</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" s="6">
         <v>25568.875295925925</v>
@@ -1239,12 +1239,12 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="4">
         <v>5728224</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" s="6">
         <v>25568.875295925925</v>
@@ -1256,12 +1256,12 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="4">
         <v>5728233</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" s="6">
         <v>25568.875295925925</v>
@@ -1273,7 +1273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="4">
         <v>5728239</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="4">
         <v>5728272</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="4">
         <v>5728276</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="4">
         <v>5728193</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="4">
         <v>5728235</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="4">
         <v>5728269</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="4">
         <v>5728196</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="4">
         <v>5728206</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="4">
         <v>5728234</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="4">
         <v>5728245</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="4">
         <v>5728256</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="4">
         <v>5728266</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="4">
         <v>5728281</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="4">
         <v>5728189</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="4">
         <v>5728200</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="4">
         <v>5728264</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="4">
         <v>5728267</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="4">
         <v>5728279</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="4">
         <v>5728175</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="4">
         <v>5728187</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="4">
         <v>5728195</v>
       </c>

--- a/PREVENTIVAS.xlsx
+++ b/PREVENTIVAS.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,18 +33,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd3d3d3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -57,16 +69,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF808080"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF808080"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF808080"/>
       </bottom>
       <diagonal/>
     </border>
@@ -81,13 +93,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -117,28 +135,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -394,53 +412,1753 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A348"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2">
-        <v>5591474</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2">
-        <v>5591714</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2">
-        <v>5591720</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2">
-        <v>5591726</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2">
-        <v>5591730</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1">
+        <v>5728489</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
+        <v>5728523</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
+        <v>5728529</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
+        <v>5728583</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
+        <v>5728634</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2">
-        <v>5591731</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2">
-        <v>5591568</v>
+        <v>5728683</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
+        <v>25568.941304652777</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
+        <v>5728735</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
+        <v>5728780</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
+        <v>5728793</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
+        <v>25568.941303449075</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2">
+        <v>5728689</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
+        <v>25568.941304328702</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4">
+        <v>5728703</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4">
+        <v>5728748</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4">
+        <v>5728797</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
+        <v>25568.94130318287</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="2">
+        <v>5728621</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
+        <v>25568.941303819443</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4">
+        <v>5728655</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4">
+        <v>5728570</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4">
+        <v>5728577</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
+        <v>25568.941303101852</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="2">
+        <v>5728591</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
+        <v>25568.941303298612</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4">
+        <v>5728653</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4">
+        <v>5728663</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4">
+        <v>5728662</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3">
+        <v>25568.941303981483</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="2">
+        <v>5728666</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3">
+        <v>25568.94130570602</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4">
+        <v>5728828</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4">
+        <v>5728702</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4">
+        <v>5728705</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3">
+        <v>25568.94130564815</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="2">
+        <v>5728490</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3">
+        <v>25568.941302835647</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="4">
+        <v>5728626</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4">
+        <v>5728627</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="4">
+        <v>5728718</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3">
+        <v>25568.941305185184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="2">
+        <v>5728779</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="3">
+        <v>25568.941302094907</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="4">
+        <v>5728561</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="4">
+        <v>5728682</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="4">
+        <v>5728814</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="3">
+        <v>25568.941302650463</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="2">
+        <v>5728563</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="3">
+        <v>25568.94130298611</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4">
+        <v>5728586</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="4">
+        <v>5728624</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="4">
+        <v>5728649</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="3">
+        <v>25568.941303912037</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="2">
+        <v>5728711</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="3">
+        <v>25568.94130476852</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="4">
+        <v>5728738</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="4">
+        <v>5728742</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="4">
+        <v>5728792</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="3">
+        <v>25568.941305555556</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="2">
+        <v>5728505</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="3">
+        <v>25568.941302569445</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="4">
+        <v>5728545</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="4">
+        <v>5728546</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="4">
+        <v>5728558</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="3">
+        <v>25568.941303472224</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="2">
+        <v>5728751</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="3">
+        <v>25568.94130503472</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="4">
+        <v>5728757</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="4">
+        <v>5728788</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="4">
+        <v>5728504</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="3">
+        <v>25568.941302592593</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="2">
+        <v>5728550</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="3">
+        <v>25568.941302719908</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="4">
+        <v>5728564</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="4">
+        <v>5728590</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="4">
+        <v>5728623</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="3">
+        <v>25568.941303622687</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="2">
+        <v>5728652</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="3">
+        <v>25568.941304050924</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="4">
+        <v>5728499</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="4">
+        <v>5728503</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="4">
+        <v>5728535</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="3">
+        <v>25568.941302997686</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="2">
+        <v>5728673</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="3">
+        <v>25568.94130429398</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="4">
+        <v>5728692</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="4">
+        <v>5728804</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="4">
+        <v>5728816</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="3">
+        <v>25568.94130576389</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="2">
+        <v>5728834</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="3">
+        <v>25568.941303090276</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="4">
+        <v>5728638</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="4">
+        <v>5728647</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="4">
+        <v>5728665</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="3">
+        <v>25568.94130434028</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="2">
+        <v>5728696</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="3">
+        <v>25568.941304594908</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="4">
+        <v>5728740</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="4">
+        <v>5728764</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="4">
+        <v>5728806</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="3">
+        <v>25568.941302106483</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="2">
+        <v>5728510</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="3">
+        <v>25568.9413025</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="4">
+        <v>5728644</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="4">
+        <v>5728668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="4">
+        <v>5728672</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="3">
+        <v>25568.94130412037</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="2">
+        <v>5728690</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="3">
+        <v>25568.941304479165</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="4">
+        <v>5728733</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="4">
+        <v>5728796</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="4">
+        <v>5728819</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="3">
+        <v>25568.941305833334</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="2">
+        <v>5728506</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="3">
+        <v>25568.941302256946</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="4">
+        <v>5728524</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="A118" s="4">
+        <v>5728525</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="4">
+        <v>5728526</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="3">
+        <v>25568.941302534724</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="2">
+        <v>5728604</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="3">
+        <v>25568.941303773147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="4">
+        <v>5728654</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="4">
+        <v>5728719</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="4">
+        <v>5728784</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="3">
+        <v>25568.941305439814</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="2">
+        <v>5728825</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="3">
+        <v>25568.94130296296</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="4">
+        <v>5728603</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="A130" s="4">
+        <v>5728609</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="A131" s="4">
+        <v>5728628</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="A132" s="3">
+        <v>25568.94130392361</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="A133" s="2">
+        <v>5728720</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="A134" s="3">
+        <v>25568.941305671295</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="A135" s="4">
+        <v>5728495</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="A136" s="4">
+        <v>5728534</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="A137" s="4">
+        <v>5728537</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+      <c r="A138" s="3">
+        <v>25568.941303460648</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="2">
+        <v>5728641</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="A140" s="3">
+        <v>25568.941304722222</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="A141" s="4">
+        <v>5728743</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="A142" s="4">
+        <v>5728763</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="A143" s="4">
+        <v>5728531</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+      <c r="A144" s="3">
+        <v>25568.941303020834</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="A145" s="2">
+        <v>5728589</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+      <c r="A146" s="3">
+        <v>25568.94130357639</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="A147" s="4">
+        <v>5728643</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+      <c r="A148" s="4">
+        <v>5728710</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+      <c r="A149" s="4">
+        <v>5728726</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+      <c r="A150" s="3">
+        <v>25568.941304791668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+      <c r="A151" s="2">
+        <v>5728739</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+      <c r="A152" s="3">
+        <v>25568.94130494213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="A153" s="4">
+        <v>5728817</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+      <c r="A154" s="4">
+        <v>5728760</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+      <c r="A155" s="4">
+        <v>5728776</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+      <c r="A156" s="3">
+        <v>25568.941305578704</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+      <c r="A157" s="2">
+        <v>5728807</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+      <c r="A158" s="3">
+        <v>25568.941305856482</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+      <c r="A159" s="4">
+        <v>5728493</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+      <c r="A160" s="4">
+        <v>5728517</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+      <c r="A161" s="4">
+        <v>5728518</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+      <c r="A162" s="3">
+        <v>25568.941302314815</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+      <c r="A163" s="2">
+        <v>5728746</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+      <c r="A164" s="3">
+        <v>25568.94130496528</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+      <c r="A165" s="4">
+        <v>5728777</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+      <c r="A166" s="4">
+        <v>5728803</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+      <c r="A167" s="4">
+        <v>5728820</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+      <c r="A168" s="3">
+        <v>25568.94130197917</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+      <c r="A169" s="2">
+        <v>5728639</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+      <c r="A170" s="3">
+        <v>25568.941303935186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+      <c r="A171" s="4">
+        <v>5728699</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+      <c r="A172" s="4">
+        <v>5728759</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+      <c r="A173" s="4">
+        <v>5728786</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+      <c r="A174" s="3">
+        <v>25568.94130230324</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+      <c r="A175" s="2">
+        <v>5728559</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+      <c r="A176" s="3">
+        <v>25568.94130320602</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+      <c r="A177" s="4">
+        <v>5728606</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+      <c r="A178" s="4">
+        <v>5728637</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+      <c r="A179" s="4">
+        <v>5728686</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+      <c r="A180" s="3">
+        <v>25568.941304814816</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+      <c r="A181" s="2">
+        <v>5728778</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+      <c r="A182" s="3">
+        <v>25568.941305694443</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+      <c r="A183" s="4">
+        <v>5728821</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+      <c r="A184" s="4">
+        <v>5728560</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+      <c r="A185" s="4">
+        <v>5728567</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+      <c r="A186" s="3">
+        <v>25568.94130287037</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+      <c r="A187" s="2">
+        <v>5728585</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+      <c r="A188" s="3">
+        <v>25568.941303333333</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+      <c r="A189" s="4">
+        <v>5728640</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+      <c r="A190" s="4">
+        <v>5728645</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+      <c r="A191" s="4">
+        <v>5728737</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+      <c r="A192" s="3">
+        <v>25568.941305173612</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+      <c r="A193" s="2">
+        <v>5728769</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+      <c r="A194" s="3">
+        <v>25568.94130521991</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+      <c r="A195" s="4">
+        <v>5728774</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+      <c r="A196" s="4">
+        <v>5728811</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+      <c r="A197" s="4">
+        <v>5728530</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+      <c r="A198" s="3">
+        <v>25568.941302581017</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+      <c r="A199" s="2">
+        <v>5728553</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+      <c r="A200" s="3">
+        <v>25568.941303217594</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+      <c r="A201" s="4">
+        <v>5728599</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+      <c r="A202" s="4">
+        <v>5728712</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+      <c r="A203" s="4">
+        <v>5728785</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+      <c r="A204" s="3">
+        <v>25568.941305532408</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+      <c r="A205" s="2">
+        <v>5728815</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+      <c r="A206" s="3">
+        <v>25568.941305810185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+      <c r="A207" s="4">
+        <v>5728832</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+      <c r="A208" s="4">
+        <v>5728508</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+      <c r="A209" s="4">
+        <v>5728601</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+      <c r="A210" s="3">
+        <v>25568.941303425927</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+      <c r="A211" s="2">
+        <v>5728622</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+      <c r="A212" s="3">
+        <v>25568.941304016204</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+      <c r="A213" s="4">
+        <v>5728687</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+      <c r="A214" s="4">
+        <v>5728715</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+      <c r="A215" s="4">
+        <v>5728725</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+      <c r="A216" s="3">
+        <v>25568.941304710646</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+      <c r="A217" s="2">
+        <v>5728787</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+      <c r="A218" s="3">
+        <v>25568.94130204861</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+      <c r="A219" s="4">
+        <v>5728566</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+      <c r="A220" s="4">
+        <v>5728700</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+      <c r="A221" s="4">
+        <v>5728708</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+      <c r="A222" s="3">
+        <v>25568.941304976852</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+      <c r="A223" s="2">
+        <v>5728773</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+      <c r="A224" s="3">
+        <v>25568.941305891203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+      <c r="A225" s="4">
+        <v>5728541</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+      <c r="A226" s="4">
+        <v>5728556</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+      <c r="A227" s="4">
+        <v>5728713</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+      <c r="A228" s="3">
+        <v>25568.941305</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+      <c r="A229" s="2">
+        <v>5728809</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+      <c r="A230" s="3">
+        <v>25568.9413059375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+      <c r="A231" s="4">
+        <v>5728831</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+      <c r="A232" s="4">
+        <v>5728511</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+      <c r="A233" s="4">
+        <v>5728512</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+      <c r="A234" s="3">
+        <v>25568.941302326388</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+      <c r="A235" s="2">
+        <v>5728532</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+      <c r="A236" s="3">
+        <v>25568.941302881944</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+      <c r="A237" s="4">
+        <v>5728574</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+      <c r="A238" s="4">
+        <v>5728575</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+      <c r="A239" s="4">
+        <v>5728635</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+      <c r="A240" s="3">
+        <v>25568.941303657408</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+      <c r="A241" s="2">
+        <v>5728671</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+      <c r="A242" s="3">
+        <v>25568.941304756943</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+      <c r="A243" s="4">
+        <v>5728744</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+      <c r="A244" s="4">
+        <v>5728753</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+      <c r="A245" s="4">
+        <v>5728789</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+      <c r="A246" s="3">
+        <v>25568.94130548611</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+      <c r="A247" s="2">
+        <v>5728514</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+      <c r="A248" s="3">
+        <v>25568.941302627314</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+      <c r="A249" s="4">
+        <v>5728572</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+      <c r="A250" s="4">
+        <v>5728596</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+      <c r="A251" s="4">
+        <v>5728613</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+      <c r="A252" s="3">
+        <v>25568.941304039352</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+      <c r="A253" s="2">
+        <v>5728677</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+      <c r="A254" s="3">
+        <v>25568.941304166667</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+      <c r="A255" s="4">
+        <v>5728693</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+      <c r="A256" s="4">
+        <v>5728706</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+      <c r="A257" s="4">
+        <v>5728762</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+      <c r="A258" s="3">
+        <v>25568.941305358796</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+      <c r="A259" s="2">
+        <v>5728805</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+      <c r="A260" s="3">
+        <v>25568.941305868055</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+      <c r="A261" s="4">
+        <v>5728488</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+      <c r="A262" s="4">
+        <v>5728538</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+      <c r="A263" s="4">
+        <v>5728552</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
+      <c r="A264" s="3">
+        <v>25568.941303171297</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
+      <c r="A265" s="2">
+        <v>5728614</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
+      <c r="A266" s="3">
+        <v>25568.94130341435</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+      <c r="A267" s="4">
+        <v>5728648</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
+      <c r="A268" s="4">
+        <v>5728724</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
+      <c r="A269" s="4">
+        <v>5728500</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
+      <c r="A270" s="3">
+        <v>25568.941302164352</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
+      <c r="A271" s="2">
+        <v>5728509</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
+      <c r="A272" s="3">
+        <v>25568.941302546296</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
+      <c r="A273" s="4">
+        <v>5728562</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
+      <c r="A274" s="4">
+        <v>5728573</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
+      <c r="A275" s="4">
+        <v>5728580</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
+      <c r="A276" s="3">
+        <v>25568.941304733795</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
+      <c r="A277" s="2">
+        <v>5728766</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
+      <c r="A278" s="3">
+        <v>25568.941305335647</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
+      <c r="A279" s="4">
+        <v>5728795</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
+      <c r="A280" s="4">
+        <v>5728582</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
+      <c r="A281" s="4">
+        <v>5728600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
+      <c r="A282" s="3">
+        <v>25568.941303368054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
+      <c r="A283" s="2">
+        <v>5728632</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
+      <c r="A284" s="3">
+        <v>25568.94130383102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
+      <c r="A285" s="4">
+        <v>5728684</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
+      <c r="A286" s="4">
+        <v>5728698</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
+      <c r="A287" s="4">
+        <v>5728741</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
+      <c r="A288" s="3">
+        <v>25568.94130554398</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
+      <c r="A289" s="2">
+        <v>5728496</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
+      <c r="A290" s="3">
+        <v>25568.94130315972</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
+      <c r="A291" s="4">
+        <v>5728661</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
+      <c r="A292" s="4">
+        <v>5728678</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
+      <c r="A293" s="4">
+        <v>5728679</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
+      <c r="A294" s="3">
+        <v>25568.94130474537</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
+      <c r="A295" s="2">
+        <v>5728745</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
+      <c r="A296" s="3">
+        <v>25568.941305150463</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
+      <c r="A297" s="4">
+        <v>5728498</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
+      <c r="A298" s="4">
+        <v>5728513</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
+      <c r="A299" s="4">
+        <v>5728528</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
+      <c r="A300" s="3">
+        <v>25568.94130246528</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
+      <c r="A301" s="2">
+        <v>5728584</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
+      <c r="A302" s="3">
+        <v>25568.94130335648</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
+      <c r="A303" s="4">
+        <v>5728630</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
+      <c r="A304" s="4">
+        <v>5728723</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
+      <c r="A305" s="4">
+        <v>5728770</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
+      <c r="A306" s="3">
+        <v>25568.941302337964</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
+      <c r="A307" s="2">
+        <v>5728592</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
+      <c r="A308" s="3">
+        <v>25568.941303530093</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
+      <c r="A309" s="4">
+        <v>5728631</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
+      <c r="A310" s="4">
+        <v>5728642</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
+      <c r="A311" s="4">
+        <v>5728656</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
+      <c r="A312" s="3">
+        <v>25568.94130409722</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
+      <c r="A313" s="2">
+        <v>5728688</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
+      <c r="A314" s="3">
+        <v>25568.941304444445</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
+      <c r="A315" s="4">
+        <v>5728709</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
+      <c r="A316" s="4">
+        <v>5728714</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
+      <c r="A317" s="4">
+        <v>5728721</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
+      <c r="A318" s="3">
+        <v>25568.941305069446</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
+      <c r="A319" s="2">
+        <v>5728775</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
+      <c r="A320" s="3">
+        <v>25568.94130545139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
+      <c r="A321" s="4">
+        <v>5728823</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
+      <c r="A322" s="4">
+        <v>5728516</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
+      <c r="A323" s="4">
+        <v>5728548</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
+      <c r="A324" s="3">
+        <v>25568.941302708332</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
+      <c r="A325" s="2">
+        <v>5728557</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
+      <c r="A326" s="3">
+        <v>25568.941302905092</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
+      <c r="A327" s="4">
+        <v>5728681</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
+      <c r="A328" s="4">
+        <v>5728685</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
+      <c r="A329" s="4">
+        <v>5728697</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
+      <c r="A330" s="3">
+        <v>25568.941304409724</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
+      <c r="A331" s="2">
+        <v>5728716</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
+      <c r="A332" s="3">
+        <v>25568.941305046297</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
+      <c r="A333" s="4">
+        <v>5728761</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
+      <c r="A334" s="4">
+        <v>5728782</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
+      <c r="A335" s="4">
+        <v>5728801</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
+      <c r="A336" s="3">
+        <v>25568.94130590278</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
+      <c r="A337" s="2">
+        <v>5728492</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
+      <c r="A338" s="3">
+        <v>25568.94130201389</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
+      <c r="A339" s="4">
+        <v>5728527</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
+      <c r="A340" s="4">
+        <v>5728551</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
+      <c r="A341" s="4">
+        <v>5728602</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
+      <c r="A342" s="3">
+        <v>25568.94130332176</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
+      <c r="A343" s="2">
+        <v>5728612</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
+      <c r="A344" s="3">
+        <v>25568.9413034375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
+      <c r="A345" s="4">
+        <v>5728657</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
+      <c r="A346" s="4">
+        <v>5728675</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
+      <c r="A347" s="4">
+        <v>5728754</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
+      <c r="A348" s="3">
+        <v>25568.94130523148</v>
       </c>
     </row>
   </sheetData>
